--- a/excels/lite/lite-Country.xlsx
+++ b/excels/lite/lite-Country.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="1340" windowWidth="17940" windowHeight="11000"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11000" windowWidth="17940" xWindow="3260" yWindow="1340"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="140001" concurrentCalc="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -79,47 +74,51 @@
   </si>
   <si>
     <t>14-02-2019</t>
+  </si>
+  <si>
+    <t>16-02-2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="11"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -134,27 +133,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="3">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="2"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -444,16 +438,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A9" sqref="A9:U11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -514,379 +512,379 @@
       <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="T1">
+      <c r="T1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="1">
+      <c r="A2" s="1" t="n">
         <v>43502</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
         <v>4</v>
       </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
+      <c r="E2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" t="n">
         <v>3</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>315</v>
       </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>2</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>2</v>
-      </c>
-      <c r="S2">
-        <v>2</v>
-      </c>
-      <c r="T2">
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2</v>
+      </c>
+      <c r="T2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="1">
+      <c r="A3" s="1" t="n">
         <v>43504</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
         <v>6</v>
       </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="n">
         <v>3</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
         <v>318</v>
       </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>2</v>
-      </c>
-      <c r="M3">
-        <v>2</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3">
-        <v>2</v>
-      </c>
-      <c r="S3">
-        <v>2</v>
-      </c>
-      <c r="T3">
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2</v>
+      </c>
+      <c r="T3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="1">
+      <c r="A4" s="1" t="n">
         <v>43505</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
         <v>4</v>
       </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="n">
         <v>3</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
         <v>320</v>
       </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>2</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="R4">
-        <v>2</v>
-      </c>
-      <c r="S4">
-        <v>1</v>
-      </c>
-      <c r="T4">
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="1">
+      <c r="A5" s="1" t="n">
         <v>43507</v>
       </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
         <v>6</v>
       </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="n">
         <v>3</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
         <v>320</v>
       </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>2</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>2</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5">
-        <v>2</v>
-      </c>
-      <c r="S5">
-        <v>2</v>
-      </c>
-      <c r="T5">
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
+      <c r="T5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="1">
+      <c r="A6" s="1" t="n">
         <v>43508</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
         <v>6</v>
       </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="n">
         <v>3</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
         <v>320</v>
       </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
         <v>3</v>
       </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-      <c r="R6">
-        <v>2</v>
-      </c>
-      <c r="S6">
-        <v>2</v>
-      </c>
-      <c r="T6">
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2</v>
+      </c>
+      <c r="T6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="2">
+      <c r="A7" s="2" t="n">
         <v>43509</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
         <v>6</v>
       </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="n">
         <v>3</v>
       </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
         <v>322</v>
       </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>2</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-      <c r="R7">
-        <v>2</v>
-      </c>
-      <c r="S7">
-        <v>2</v>
-      </c>
-      <c r="T7">
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2</v>
+      </c>
+      <c r="T7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -894,74 +892,190 @@
       <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
         <v>6</v>
       </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" t="n">
         <v>3</v>
       </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
         <v>319</v>
       </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>2</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-      <c r="R8">
-        <v>2</v>
-      </c>
-      <c r="S8">
-        <v>2</v>
-      </c>
-      <c r="T8">
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2</v>
+      </c>
+      <c r="T8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="2"/>
+      <c r="A9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>6</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>319</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967292" orientation="portrait" paperSize="9" verticalDpi="4294967292"/>
 </worksheet>
 </file>
--- a/excels/lite/lite-Country.xlsx
+++ b/excels/lite/lite-Country.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>16-02-2019</t>
+  </si>
+  <si>
+    <t>19-02-2019</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A9" sqref="A9:U11"/>
@@ -952,7 +955,7 @@
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="2" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -1071,6 +1074,68 @@
         <v>2</v>
       </c>
       <c r="T10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>6</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>319</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2</v>
+      </c>
+      <c r="T11" t="n">
         <v>0</v>
       </c>
     </row>

--- a/excels/lite/lite-Country.xlsx
+++ b/excels/lite/lite-Country.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>Date</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>19-02-2019</t>
+  </si>
+  <si>
+    <t>23-02-2019</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A9" sqref="A9:U11"/>
@@ -955,7 +958,7 @@
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="2" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -1136,6 +1139,68 @@
         <v>2</v>
       </c>
       <c r="T11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>317</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2</v>
+      </c>
+      <c r="T12" t="n">
         <v>0</v>
       </c>
     </row>

--- a/excels/lite/lite-Country.xlsx
+++ b/excels/lite/lite-Country.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>23-02-2019</t>
+  </si>
+  <si>
+    <t>24-02-2019</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A9" sqref="A9:U11"/>
@@ -958,7 +961,7 @@
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="2" t="n">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -1201,6 +1204,68 @@
         <v>2</v>
       </c>
       <c r="T12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>317</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2</v>
+      </c>
+      <c r="T13" t="n">
         <v>0</v>
       </c>
     </row>

--- a/excels/lite/lite-Country.xlsx
+++ b/excels/lite/lite-Country.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -73,6 +73,9 @@
     <t>US</t>
   </si>
   <si>
+    <t>ES</t>
+  </si>
+  <si>
     <t>14-02-2019</t>
   </si>
   <si>
@@ -86,6 +89,12 @@
   </si>
   <si>
     <t>24-02-2019</t>
+  </si>
+  <si>
+    <t>25-02-2019</t>
+  </si>
+  <si>
+    <t>03-03-2019</t>
   </si>
 </sst>
 </file>
@@ -452,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A9" sqref="A9:U11"/>
@@ -463,7 +472,7 @@
     <col bestFit="1" customWidth="1" max="1" min="1" width="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -524,8 +533,11 @@
       <c r="T1" t="n">
         <v>0</v>
       </c>
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:21">
       <c r="A2" s="1" t="n">
         <v>43502</v>
       </c>
@@ -586,8 +598,11 @@
       <c r="T2" t="n">
         <v>0</v>
       </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:21">
       <c r="A3" s="1" t="n">
         <v>43504</v>
       </c>
@@ -648,8 +663,11 @@
       <c r="T3" t="n">
         <v>0</v>
       </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:21">
       <c r="A4" s="1" t="n">
         <v>43505</v>
       </c>
@@ -710,8 +728,11 @@
       <c r="T4" t="n">
         <v>0</v>
       </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:21">
       <c r="A5" s="1" t="n">
         <v>43507</v>
       </c>
@@ -772,8 +793,11 @@
       <c r="T5" t="n">
         <v>0</v>
       </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:21">
       <c r="A6" s="1" t="n">
         <v>43508</v>
       </c>
@@ -834,8 +858,11 @@
       <c r="T6" t="n">
         <v>0</v>
       </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:21">
       <c r="A7" s="2" t="n">
         <v>43509</v>
       </c>
@@ -896,10 +923,13 @@
       <c r="T7" t="n">
         <v>0</v>
       </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -958,10 +988,13 @@
       <c r="T8" t="n">
         <v>0</v>
       </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:21">
       <c r="A9" s="2" t="n">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -1020,10 +1053,13 @@
       <c r="T9" t="n">
         <v>0</v>
       </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -1082,10 +1118,13 @@
       <c r="T10" t="n">
         <v>0</v>
       </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -1144,10 +1183,13 @@
       <c r="T11" t="n">
         <v>0</v>
       </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -1206,10 +1248,13 @@
       <c r="T12" t="n">
         <v>0</v>
       </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
@@ -1267,6 +1312,139 @@
       </c>
       <c r="T13" t="n">
         <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>315</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>315</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/excels/lite/lite-Country.xlsx
+++ b/excels/lite/lite-Country.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="1340" windowWidth="17940" windowHeight="11000"/>
+    <workbookView xWindow="3260" yWindow="1340" windowWidth="27820" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -441,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U14"/>
+  <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1359,6 +1359,71 @@
         <v>0</v>
       </c>
       <c r="U14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" s="1">
+        <v>43529</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>315</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>2</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>2</v>
+      </c>
+      <c r="S15">
+        <v>2</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
         <v>1</v>
       </c>
     </row>

--- a/excels/lite/lite-Country.xlsx
+++ b/excels/lite/lite-Country.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>Date</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t>6/3/2019</t>
+  </si>
+  <si>
+    <t>3/11/2019</t>
+  </si>
+  <si>
+    <t>11/3/19</t>
   </si>
 </sst>
 </file>
@@ -443,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U16"/>
+  <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
@@ -1494,6 +1500,136 @@
         <v>1</v>
       </c>
     </row>
+    <row r="17" spans="1:21">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>5</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>314</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" t="n">
+        <v>2</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>314</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup horizontalDpi="4294967292" orientation="portrait" paperSize="9" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Country.xlsx
+++ b/excels/lite/lite-Country.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>13/03/2019</t>
+  </si>
+  <si>
+    <t>16/03/2019</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
@@ -1756,6 +1759,68 @@
         <v>1</v>
       </c>
     </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>5</v>
+      </c>
+      <c r="E22" t="n">
+        <v>5</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>314</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1</v>
+      </c>
+      <c r="O22" t="n">
+        <v>2</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup horizontalDpi="4294967292" orientation="portrait" paperSize="9" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Country.xlsx
+++ b/excels/lite/lite-Country.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -134,35 +134,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -457,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T33"/>
+  <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:A39"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2511,6 +2495,68 @@
         <v>2</v>
       </c>
       <c r="T33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>43542</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+      <c r="E34">
+        <v>5</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>314</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>2</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>2</v>
+      </c>
+      <c r="P34">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>2</v>
+      </c>
+      <c r="S34">
+        <v>2</v>
+      </c>
+      <c r="T34">
         <v>1</v>
       </c>
     </row>

--- a/excels/lite/lite-Country.xlsx
+++ b/excels/lite/lite-Country.xlsx
@@ -441,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T34"/>
+  <dimension ref="A1:T35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2557,6 +2557,68 @@
         <v>2</v>
       </c>
       <c r="T34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>43543</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35">
+        <v>5</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>314</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>2</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>2</v>
+      </c>
+      <c r="P35">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>2</v>
+      </c>
+      <c r="S35">
+        <v>2</v>
+      </c>
+      <c r="T35">
         <v>1</v>
       </c>
     </row>

--- a/excels/lite/lite-Country.xlsx
+++ b/excels/lite/lite-Country.xlsx
@@ -441,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T35"/>
+  <dimension ref="A1:T36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2619,6 +2619,68 @@
         <v>2</v>
       </c>
       <c r="T35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>43544</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
+      <c r="E36">
+        <v>5</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>314</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>2</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>2</v>
+      </c>
+      <c r="P36">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>2</v>
+      </c>
+      <c r="S36">
+        <v>2</v>
+      </c>
+      <c r="T36">
         <v>1</v>
       </c>
     </row>

--- a/excels/lite/lite-Country.xlsx
+++ b/excels/lite/lite-Country.xlsx
@@ -441,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T36"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2681,6 +2681,68 @@
         <v>2</v>
       </c>
       <c r="T36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>43548</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37">
+        <v>5</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>314</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>2</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>2</v>
+      </c>
+      <c r="P37">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>2</v>
+      </c>
+      <c r="S37">
+        <v>2</v>
+      </c>
+      <c r="T37">
         <v>1</v>
       </c>
     </row>

--- a/excels/lite/lite-Country.xlsx
+++ b/excels/lite/lite-Country.xlsx
@@ -441,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2743,6 +2743,68 @@
         <v>2</v>
       </c>
       <c r="T37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>43549</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
+      <c r="E38">
+        <v>5</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>314</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>2</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>2</v>
+      </c>
+      <c r="P38">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>2</v>
+      </c>
+      <c r="S38">
+        <v>2</v>
+      </c>
+      <c r="T38">
         <v>1</v>
       </c>
     </row>

--- a/excels/lite/lite-Country.xlsx
+++ b/excels/lite/lite-Country.xlsx
@@ -441,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T38"/>
+  <dimension ref="A1:T39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2805,6 +2805,68 @@
         <v>2</v>
       </c>
       <c r="T38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>43550</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>5</v>
+      </c>
+      <c r="E39">
+        <v>5</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>314</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>2</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>2</v>
+      </c>
+      <c r="P39">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>2</v>
+      </c>
+      <c r="S39">
+        <v>2</v>
+      </c>
+      <c r="T39">
         <v>1</v>
       </c>
     </row>

--- a/excels/lite/lite-Country.xlsx
+++ b/excels/lite/lite-Country.xlsx
@@ -441,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T39"/>
+  <dimension ref="A1:T40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2867,6 +2867,68 @@
         <v>2</v>
       </c>
       <c r="T39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>43556</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
+      </c>
+      <c r="E40">
+        <v>5</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>319</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>2</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>2</v>
+      </c>
+      <c r="P40">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>2</v>
+      </c>
+      <c r="S40">
+        <v>2</v>
+      </c>
+      <c r="T40">
         <v>1</v>
       </c>
     </row>

--- a/excels/lite/lite-Country.xlsx
+++ b/excels/lite/lite-Country.xlsx
@@ -441,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T40"/>
+  <dimension ref="A1:T43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="T42" sqref="T42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2872,7 +2872,7 @@
     </row>
     <row r="40" spans="1:20">
       <c r="A40" s="1">
-        <v>43556</v>
+        <v>43554</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -2929,6 +2929,192 @@
         <v>2</v>
       </c>
       <c r="T40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>43556</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="E41">
+        <v>5</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>319</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>2</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>2</v>
+      </c>
+      <c r="P41">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>2</v>
+      </c>
+      <c r="S41">
+        <v>2</v>
+      </c>
+      <c r="T41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>43557</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
+      <c r="E42">
+        <v>7</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>369</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>2</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>2</v>
+      </c>
+      <c r="P42">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>2</v>
+      </c>
+      <c r="S42">
+        <v>2</v>
+      </c>
+      <c r="T42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20">
+      <c r="A43" s="1">
+        <v>43558</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43">
+        <v>9</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>407</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>2</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>2</v>
+      </c>
+      <c r="P43">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>2</v>
+      </c>
+      <c r="S43">
+        <v>2</v>
+      </c>
+      <c r="T43">
         <v>1</v>
       </c>
     </row>

--- a/excels/lite/lite-Country.xlsx
+++ b/excels/lite/lite-Country.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giorgosandreou/Documents/Visual Studio/thesis-old/excels/lite/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2340" windowWidth="35280" windowHeight="16600"/>
   </bookViews>
@@ -156,11 +151,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -451,18 +441,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T45"/>
+  <dimension ref="A1:T46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -524,7 +514,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>43502</v>
       </c>
@@ -586,7 +576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>43504</v>
       </c>
@@ -648,7 +638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>43505</v>
       </c>
@@ -710,7 +700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>43507</v>
       </c>
@@ -772,7 +762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>43508</v>
       </c>
@@ -834,7 +824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20">
       <c r="A7" s="2">
         <v>43509</v>
       </c>
@@ -896,7 +886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>43510</v>
       </c>
@@ -958,7 +948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>43512</v>
       </c>
@@ -1020,7 +1010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>43515</v>
       </c>
@@ -1082,7 +1072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>43519</v>
       </c>
@@ -1144,7 +1134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>43520</v>
       </c>
@@ -1206,7 +1196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>43521</v>
       </c>
@@ -1268,7 +1258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>43522</v>
       </c>
@@ -1330,7 +1320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>43523</v>
       </c>
@@ -1392,7 +1382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>43524</v>
       </c>
@@ -1454,7 +1444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>43525</v>
       </c>
@@ -1516,7 +1506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>43526</v>
       </c>
@@ -1578,7 +1568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>43527</v>
       </c>
@@ -1640,7 +1630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>43528</v>
       </c>
@@ -1702,7 +1692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>43529</v>
       </c>
@@ -1764,7 +1754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>43502</v>
       </c>
@@ -1826,7 +1816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>43531</v>
       </c>
@@ -1888,7 +1878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>43532</v>
       </c>
@@ -1950,7 +1940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>43533</v>
       </c>
@@ -2012,7 +2002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20">
       <c r="A26" s="1">
         <v>43534</v>
       </c>
@@ -2074,7 +2064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20">
       <c r="A27" s="1">
         <v>43535</v>
       </c>
@@ -2136,7 +2126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20">
       <c r="A28" s="1">
         <v>43536</v>
       </c>
@@ -2198,7 +2188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20">
       <c r="A29" s="1">
         <v>43537</v>
       </c>
@@ -2260,7 +2250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20">
       <c r="A30" s="1">
         <v>43538</v>
       </c>
@@ -2322,7 +2312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20">
       <c r="A31" s="1">
         <v>43539</v>
       </c>
@@ -2384,7 +2374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20">
       <c r="A32" s="1">
         <v>43540</v>
       </c>
@@ -2446,7 +2436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20">
       <c r="A33" s="1">
         <v>43541</v>
       </c>
@@ -2508,7 +2498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20">
       <c r="A34" s="1">
         <v>43542</v>
       </c>
@@ -2570,7 +2560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20">
       <c r="A35" s="1">
         <v>43543</v>
       </c>
@@ -2632,7 +2622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20">
       <c r="A36" s="1">
         <v>43544</v>
       </c>
@@ -2694,7 +2684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20">
       <c r="A37" s="1">
         <v>43548</v>
       </c>
@@ -2756,7 +2746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20">
       <c r="A38" s="1">
         <v>43549</v>
       </c>
@@ -2818,7 +2808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20">
       <c r="A39" s="1">
         <v>43550</v>
       </c>
@@ -2880,7 +2870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20">
       <c r="A40" s="1">
         <v>43554</v>
       </c>
@@ -2942,7 +2932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20">
       <c r="A41" s="1">
         <v>43556</v>
       </c>
@@ -3004,7 +2994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20">
       <c r="A42" s="1">
         <v>43557</v>
       </c>
@@ -3066,7 +3056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20">
       <c r="A43" s="1">
         <v>43558</v>
       </c>
@@ -3128,7 +3118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20">
       <c r="A44" s="1">
         <v>43559</v>
       </c>
@@ -3190,7 +3180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20">
       <c r="A45" s="1">
         <v>43560</v>
       </c>
@@ -3249,11 +3239,78 @@
         <v>2</v>
       </c>
       <c r="T45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20">
+      <c r="A46" s="1">
+        <v>43561</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>5</v>
+      </c>
+      <c r="E46">
+        <v>11</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>435</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>2</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>2</v>
+      </c>
+      <c r="P46">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>2</v>
+      </c>
+      <c r="S46">
+        <v>2</v>
+      </c>
+      <c r="T46">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/excels/lite/lite-Country.xlsx
+++ b/excels/lite/lite-Country.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giorgosandreou/Documents/Visual Studio/thesis-old/excels/lite/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="2340" windowWidth="35280" windowHeight="16600"/>
   </bookViews>
@@ -151,6 +156,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -441,18 +451,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T46"/>
+  <dimension ref="A1:T48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -514,7 +524,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43502</v>
       </c>
@@ -576,7 +586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43504</v>
       </c>
@@ -638,7 +648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43505</v>
       </c>
@@ -700,7 +710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43507</v>
       </c>
@@ -762,7 +772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43508</v>
       </c>
@@ -824,7 +834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>43509</v>
       </c>
@@ -886,7 +896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43510</v>
       </c>
@@ -948,7 +958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43512</v>
       </c>
@@ -1010,7 +1020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43515</v>
       </c>
@@ -1072,7 +1082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43519</v>
       </c>
@@ -1134,7 +1144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43520</v>
       </c>
@@ -1196,7 +1206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43521</v>
       </c>
@@ -1258,7 +1268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43522</v>
       </c>
@@ -1320,7 +1330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43523</v>
       </c>
@@ -1382,7 +1392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43524</v>
       </c>
@@ -1444,7 +1454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43525</v>
       </c>
@@ -1506,7 +1516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43526</v>
       </c>
@@ -1568,7 +1578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43527</v>
       </c>
@@ -1630,7 +1640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43528</v>
       </c>
@@ -1692,7 +1702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43529</v>
       </c>
@@ -1754,7 +1764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43502</v>
       </c>
@@ -1816,7 +1826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43531</v>
       </c>
@@ -1878,7 +1888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43532</v>
       </c>
@@ -1940,7 +1950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>43533</v>
       </c>
@@ -2002,7 +2012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43534</v>
       </c>
@@ -2064,7 +2074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>43535</v>
       </c>
@@ -2126,7 +2136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>43536</v>
       </c>
@@ -2188,7 +2198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43537</v>
       </c>
@@ -2250,7 +2260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43538</v>
       </c>
@@ -2312,7 +2322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>43539</v>
       </c>
@@ -2374,7 +2384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>43540</v>
       </c>
@@ -2436,7 +2446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>43541</v>
       </c>
@@ -2498,7 +2508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>43542</v>
       </c>
@@ -2560,7 +2570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>43543</v>
       </c>
@@ -2622,7 +2632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>43544</v>
       </c>
@@ -2684,7 +2694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>43548</v>
       </c>
@@ -2746,7 +2756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>43549</v>
       </c>
@@ -2808,7 +2818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>43550</v>
       </c>
@@ -2870,7 +2880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>43554</v>
       </c>
@@ -2932,7 +2942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>43556</v>
       </c>
@@ -2994,7 +3004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>43557</v>
       </c>
@@ -3056,7 +3066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>43558</v>
       </c>
@@ -3118,7 +3128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43559</v>
       </c>
@@ -3180,7 +3190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43560</v>
       </c>
@@ -3242,7 +3252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>43561</v>
       </c>
@@ -3301,16 +3311,135 @@
         <v>2</v>
       </c>
       <c r="T46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>43562</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>5</v>
+      </c>
+      <c r="E47">
+        <v>11</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>437</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>2</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>2</v>
+      </c>
+      <c r="P47">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>2</v>
+      </c>
+      <c r="S47">
+        <v>2</v>
+      </c>
+      <c r="T47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>43563</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
+      <c r="E48">
+        <v>11</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>437</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>2</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>2</v>
+      </c>
+      <c r="P48">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>2</v>
+      </c>
+      <c r="S48">
+        <v>2</v>
+      </c>
+      <c r="T48">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/excels/lite/lite-Country.xlsx
+++ b/excels/lite/lite-Country.xlsx
@@ -451,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T48"/>
+  <dimension ref="A1:T49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3438,6 +3438,68 @@
         <v>1</v>
       </c>
     </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>43564</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>5</v>
+      </c>
+      <c r="E49">
+        <v>11</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>436</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>2</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>2</v>
+      </c>
+      <c r="P49">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>2</v>
+      </c>
+      <c r="S49">
+        <v>2</v>
+      </c>
+      <c r="T49">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Country.xlsx
+++ b/excels/lite/lite-Country.xlsx
@@ -451,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T49"/>
+  <dimension ref="A1:T50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3500,6 +3500,68 @@
         <v>1</v>
       </c>
     </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>43565</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>5</v>
+      </c>
+      <c r="E50">
+        <v>11</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>436</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <v>2</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>2</v>
+      </c>
+      <c r="P50">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>2</v>
+      </c>
+      <c r="S50">
+        <v>2</v>
+      </c>
+      <c r="T50">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Country.xlsx
+++ b/excels/lite/lite-Country.xlsx
@@ -451,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T50"/>
+  <dimension ref="A1:T53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3562,6 +3562,192 @@
         <v>1</v>
       </c>
     </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>43566</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>5</v>
+      </c>
+      <c r="E51">
+        <v>11</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>436</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>2</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>2</v>
+      </c>
+      <c r="P51">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>2</v>
+      </c>
+      <c r="S51">
+        <v>2</v>
+      </c>
+      <c r="T51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>43567</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>5</v>
+      </c>
+      <c r="E52">
+        <v>11</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>436</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>2</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>2</v>
+      </c>
+      <c r="P52">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>2</v>
+      </c>
+      <c r="S52">
+        <v>2</v>
+      </c>
+      <c r="T52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>43568</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="E53">
+        <v>11</v>
+      </c>
+      <c r="F53">
+        <v>3</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>440</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>2</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>2</v>
+      </c>
+      <c r="P53">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>2</v>
+      </c>
+      <c r="S53">
+        <v>2</v>
+      </c>
+      <c r="T53">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Country.xlsx
+++ b/excels/lite/lite-Country.xlsx
@@ -454,7 +454,7 @@
   <dimension ref="A1:T53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+      <selection activeCell="A54" sqref="A54:XFD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/excels/lite/lite-Country.xlsx
+++ b/excels/lite/lite-Country.xlsx
@@ -451,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T53"/>
+  <dimension ref="A1:T54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:XFD54"/>
+      <selection activeCell="B54" sqref="A54:XFD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3748,6 +3748,68 @@
         <v>1</v>
       </c>
     </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>43569</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
+      </c>
+      <c r="E54">
+        <v>11</v>
+      </c>
+      <c r="F54">
+        <v>3</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>440</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>2</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>2</v>
+      </c>
+      <c r="P54">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>2</v>
+      </c>
+      <c r="S54">
+        <v>2</v>
+      </c>
+      <c r="T54">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Country.xlsx
+++ b/excels/lite/lite-Country.xlsx
@@ -451,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T54"/>
+  <dimension ref="A1:T55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B54" sqref="A54:XFD54"/>
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3810,6 +3810,68 @@
         <v>1</v>
       </c>
     </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>43570</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55">
+        <v>11</v>
+      </c>
+      <c r="F55">
+        <v>3</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>440</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>2</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>2</v>
+      </c>
+      <c r="P55">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>2</v>
+      </c>
+      <c r="S55">
+        <v>2</v>
+      </c>
+      <c r="T55">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Country.xlsx
+++ b/excels/lite/lite-Country.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2340" windowWidth="35280" windowHeight="16600"/>
+    <workbookView xWindow="6100" yWindow="8240" windowWidth="35280" windowHeight="16600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -453,8 +453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/excels/lite/lite-Country.xlsx
+++ b/excels/lite/lite-Country.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6100" yWindow="8240" windowWidth="35280" windowHeight="16600"/>
+    <workbookView xWindow="3120" yWindow="5000" windowWidth="35280" windowHeight="16600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -451,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T55"/>
+  <dimension ref="A1:T56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3872,6 +3872,68 @@
         <v>1</v>
       </c>
     </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>43571</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>5</v>
+      </c>
+      <c r="E56">
+        <v>11</v>
+      </c>
+      <c r="F56">
+        <v>3</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>440</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>2</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>2</v>
+      </c>
+      <c r="P56">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>2</v>
+      </c>
+      <c r="S56">
+        <v>2</v>
+      </c>
+      <c r="T56">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Country.xlsx
+++ b/excels/lite/lite-Country.xlsx
@@ -451,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T56"/>
+  <dimension ref="A1:T57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3934,6 +3934,68 @@
         <v>1</v>
       </c>
     </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>43572</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>5</v>
+      </c>
+      <c r="E57">
+        <v>11</v>
+      </c>
+      <c r="F57">
+        <v>3</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>440</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>2</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>2</v>
+      </c>
+      <c r="P57">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>2</v>
+      </c>
+      <c r="S57">
+        <v>2</v>
+      </c>
+      <c r="T57">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Country.xlsx
+++ b/excels/lite/lite-Country.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="5000" windowWidth="35280" windowHeight="16600"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -451,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T57"/>
+  <dimension ref="A1:T61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3996,6 +3996,254 @@
         <v>1</v>
       </c>
     </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>43573</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>5</v>
+      </c>
+      <c r="E58">
+        <v>11</v>
+      </c>
+      <c r="F58">
+        <v>3</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>441</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>2</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>2</v>
+      </c>
+      <c r="P58">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>2</v>
+      </c>
+      <c r="S58">
+        <v>2</v>
+      </c>
+      <c r="T58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>43574</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>5</v>
+      </c>
+      <c r="E59">
+        <v>11</v>
+      </c>
+      <c r="F59">
+        <v>3</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>441</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>2</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>2</v>
+      </c>
+      <c r="P59">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>2</v>
+      </c>
+      <c r="S59">
+        <v>2</v>
+      </c>
+      <c r="T59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>43575</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>5</v>
+      </c>
+      <c r="E60">
+        <v>15</v>
+      </c>
+      <c r="F60">
+        <v>3</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>465</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>2</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>2</v>
+      </c>
+      <c r="P60">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>2</v>
+      </c>
+      <c r="S60">
+        <v>2</v>
+      </c>
+      <c r="T60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>43576</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>5</v>
+      </c>
+      <c r="E61">
+        <v>20</v>
+      </c>
+      <c r="F61">
+        <v>3</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>479</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>2</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>2</v>
+      </c>
+      <c r="P61">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>2</v>
+      </c>
+      <c r="S61">
+        <v>2</v>
+      </c>
+      <c r="T61">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Country.xlsx
+++ b/excels/lite/lite-Country.xlsx
@@ -451,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T61"/>
+  <dimension ref="A1:T62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4244,6 +4244,68 @@
         <v>1</v>
       </c>
     </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>43577</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>5</v>
+      </c>
+      <c r="E62">
+        <v>22</v>
+      </c>
+      <c r="F62">
+        <v>3</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>496</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>2</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>2</v>
+      </c>
+      <c r="P62">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>2</v>
+      </c>
+      <c r="S62">
+        <v>2</v>
+      </c>
+      <c r="T62">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Country.xlsx
+++ b/excels/lite/lite-Country.xlsx
@@ -451,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T62"/>
+  <dimension ref="A1:T63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+      <selection activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4306,6 +4306,68 @@
         <v>1</v>
       </c>
     </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>43578</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>5</v>
+      </c>
+      <c r="E63">
+        <v>22</v>
+      </c>
+      <c r="F63">
+        <v>3</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>512</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>2</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>2</v>
+      </c>
+      <c r="P63">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>2</v>
+      </c>
+      <c r="S63">
+        <v>2</v>
+      </c>
+      <c r="T63">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Country.xlsx
+++ b/excels/lite/lite-Country.xlsx
@@ -451,7 +451,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T63"/>
+  <dimension ref="A1:T64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
       <selection activeCell="I64" sqref="I64"/>
@@ -4368,6 +4368,68 @@
         <v>1</v>
       </c>
     </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>43578</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>5</v>
+      </c>
+      <c r="E64">
+        <v>24</v>
+      </c>
+      <c r="F64">
+        <v>3</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>520</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>2</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>2</v>
+      </c>
+      <c r="P64">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>2</v>
+      </c>
+      <c r="S64">
+        <v>2</v>
+      </c>
+      <c r="T64">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Country.xlsx
+++ b/excels/lite/lite-Country.xlsx
@@ -451,15 +451,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T64"/>
+  <dimension ref="A1:T67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="I64" sqref="I64"/>
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
@@ -4370,7 +4370,7 @@
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>43578</v>
+        <v>43579</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -4427,6 +4427,192 @@
         <v>2</v>
       </c>
       <c r="T64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>43580</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>5</v>
+      </c>
+      <c r="E65">
+        <v>24</v>
+      </c>
+      <c r="F65">
+        <v>3</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>530</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>2</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <v>2</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>2</v>
+      </c>
+      <c r="S65">
+        <v>2</v>
+      </c>
+      <c r="T65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>43581</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>5</v>
+      </c>
+      <c r="E66">
+        <v>32</v>
+      </c>
+      <c r="F66">
+        <v>3</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>532</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>2</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <v>2</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>2</v>
+      </c>
+      <c r="S66">
+        <v>2</v>
+      </c>
+      <c r="T66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>43582</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>5</v>
+      </c>
+      <c r="E67">
+        <v>37</v>
+      </c>
+      <c r="F67">
+        <v>3</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>535</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <v>2</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <v>2</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>2</v>
+      </c>
+      <c r="S67">
+        <v>2</v>
+      </c>
+      <c r="T67">
         <v>1</v>
       </c>
     </row>

--- a/excels/lite/lite-Country.xlsx
+++ b/excels/lite/lite-Country.xlsx
@@ -451,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T67"/>
+  <dimension ref="A1:T69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4616,6 +4616,130 @@
         <v>1</v>
       </c>
     </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>43583</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>5</v>
+      </c>
+      <c r="E68">
+        <v>39</v>
+      </c>
+      <c r="F68">
+        <v>3</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <v>537</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="M68">
+        <v>2</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68">
+        <v>2</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>2</v>
+      </c>
+      <c r="S68">
+        <v>2</v>
+      </c>
+      <c r="T68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>43584</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>5</v>
+      </c>
+      <c r="E69">
+        <v>40</v>
+      </c>
+      <c r="F69">
+        <v>3</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>539</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69">
+        <v>2</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69">
+        <v>2</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>2</v>
+      </c>
+      <c r="S69">
+        <v>2</v>
+      </c>
+      <c r="T69">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Country.xlsx
+++ b/excels/lite/lite-Country.xlsx
@@ -451,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T69"/>
+  <dimension ref="A1:T70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4740,6 +4740,68 @@
         <v>1</v>
       </c>
     </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>43586</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>5</v>
+      </c>
+      <c r="E70">
+        <v>40</v>
+      </c>
+      <c r="F70">
+        <v>3</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>554</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>2</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <v>2</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>2</v>
+      </c>
+      <c r="S70">
+        <v>2</v>
+      </c>
+      <c r="T70">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
